--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_NoEng_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_NoEng_swish.xlsx
@@ -485,28 +485,28 @@
         <v>26.86666666666667</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>72.83333333333333</v>
+        <v>73.13333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>141.4057922363281</v>
+        <v>142.9039154052734</v>
       </c>
       <c r="G2" t="n">
-        <v>57.23385620117188</v>
+        <v>60.90413284301758</v>
       </c>
       <c r="H2" t="n">
-        <v>-218.9082489013672</v>
+        <v>-225.8568267822266</v>
       </c>
       <c r="I2" t="n">
-        <v>101.7632141113281</v>
+        <v>105.6115264892578</v>
       </c>
     </row>
     <row r="3">
@@ -514,28 +514,28 @@
         <v>29.3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>70.40000000000001</v>
+        <v>70.7</v>
       </c>
       <c r="F3" t="n">
-        <v>134.6716918945312</v>
+        <v>136.1386260986328</v>
       </c>
       <c r="G3" t="n">
-        <v>53.6031379699707</v>
+        <v>58.40740966796875</v>
       </c>
       <c r="H3" t="n">
-        <v>-201.1372985839844</v>
+        <v>-198.5666961669922</v>
       </c>
       <c r="I3" t="n">
-        <v>109.0945053100586</v>
+        <v>107.0893783569336</v>
       </c>
     </row>
     <row r="4">
@@ -543,28 +543,28 @@
         <v>31.73333333333333</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67.96666666666667</v>
+        <v>68.26666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>127.8605728149414</v>
+        <v>127.9122543334961</v>
       </c>
       <c r="G4" t="n">
-        <v>55.09041595458984</v>
+        <v>55.11249542236328</v>
       </c>
       <c r="H4" t="n">
-        <v>-173.3358459472656</v>
+        <v>-180.7686309814453</v>
       </c>
       <c r="I4" t="n">
-        <v>102.4132232666016</v>
+        <v>104.7716979980469</v>
       </c>
     </row>
     <row r="5">
@@ -572,28 +572,28 @@
         <v>34.16666666666666</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>65.53333333333333</v>
+        <v>65.83333333333334</v>
       </c>
       <c r="F5" t="n">
-        <v>126.1652221679688</v>
+        <v>122.8113250732422</v>
       </c>
       <c r="G5" t="n">
-        <v>58.50841522216797</v>
+        <v>56.23503875732422</v>
       </c>
       <c r="H5" t="n">
-        <v>-150.0214691162109</v>
+        <v>-152.8765258789062</v>
       </c>
       <c r="I5" t="n">
-        <v>98.54139709472656</v>
+        <v>103.8618774414062</v>
       </c>
     </row>
     <row r="6">
@@ -601,28 +601,28 @@
         <v>36.6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>63.09999999999999</v>
+        <v>63.4</v>
       </c>
       <c r="F6" t="n">
-        <v>120.5783843994141</v>
+        <v>121.7663421630859</v>
       </c>
       <c r="G6" t="n">
-        <v>55.56879806518555</v>
+        <v>54.82246017456055</v>
       </c>
       <c r="H6" t="n">
-        <v>-125.7425765991211</v>
+        <v>-130.3061676025391</v>
       </c>
       <c r="I6" t="n">
-        <v>95.67284393310547</v>
+        <v>97.74222564697266</v>
       </c>
     </row>
     <row r="7">
@@ -630,28 +630,28 @@
         <v>39.03333333333333</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>60.66666666666666</v>
+        <v>60.96666666666667</v>
       </c>
       <c r="F7" t="n">
-        <v>118.8387985229492</v>
+        <v>115.0748672485352</v>
       </c>
       <c r="G7" t="n">
-        <v>56.35035705566406</v>
+        <v>54.88272476196289</v>
       </c>
       <c r="H7" t="n">
-        <v>-105.3298797607422</v>
+        <v>-111.1267700195312</v>
       </c>
       <c r="I7" t="n">
-        <v>95.92208099365234</v>
+        <v>94.9827880859375</v>
       </c>
     </row>
     <row r="8">
@@ -659,28 +659,28 @@
         <v>41.46666666666666</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>58.23333333333333</v>
+        <v>58.53333333333334</v>
       </c>
       <c r="F8" t="n">
-        <v>111.7657928466797</v>
+        <v>114.4561080932617</v>
       </c>
       <c r="G8" t="n">
-        <v>55.46495056152344</v>
+        <v>56.65134811401367</v>
       </c>
       <c r="H8" t="n">
-        <v>-85.96515655517578</v>
+        <v>-84.29347991943359</v>
       </c>
       <c r="I8" t="n">
-        <v>92.36711120605469</v>
+        <v>91.63892364501953</v>
       </c>
     </row>
     <row r="9">
@@ -688,28 +688,28 @@
         <v>43.89999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>55.8</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>110.706916809082</v>
+        <v>110.2434005737305</v>
       </c>
       <c r="G9" t="n">
-        <v>58.35983276367188</v>
+        <v>57.87954330444336</v>
       </c>
       <c r="H9" t="n">
-        <v>-67.91297149658203</v>
+        <v>-67.83064270019531</v>
       </c>
       <c r="I9" t="n">
-        <v>84.58747100830078</v>
+        <v>83.70140075683594</v>
       </c>
     </row>
     <row r="10">
@@ -717,28 +717,28 @@
         <v>46.33333333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>53.36666666666667</v>
+        <v>53.66666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>109.949348449707</v>
+        <v>108.3966369628906</v>
       </c>
       <c r="G10" t="n">
-        <v>53.29198837280273</v>
+        <v>56.90435028076172</v>
       </c>
       <c r="H10" t="n">
-        <v>-51.2697868347168</v>
+        <v>-52.41268920898438</v>
       </c>
       <c r="I10" t="n">
-        <v>79.64466094970703</v>
+        <v>82.87322998046875</v>
       </c>
     </row>
     <row r="11">
@@ -746,28 +746,28 @@
         <v>48.76666666666667</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>50.93333333333333</v>
+        <v>51.23333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>106.6919326782227</v>
+        <v>104.1479263305664</v>
       </c>
       <c r="G11" t="n">
-        <v>59.31729888916016</v>
+        <v>59.57421493530273</v>
       </c>
       <c r="H11" t="n">
-        <v>-37.26095581054688</v>
+        <v>-37.1301155090332</v>
       </c>
       <c r="I11" t="n">
-        <v>79.14993286132812</v>
+        <v>76.44632720947266</v>
       </c>
     </row>
     <row r="12">
@@ -775,28 +775,28 @@
         <v>51.2</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>48.49999999999999</v>
+        <v>48.8</v>
       </c>
       <c r="F12" t="n">
-        <v>102.3230133056641</v>
+        <v>104.3959350585938</v>
       </c>
       <c r="G12" t="n">
-        <v>58.91764831542969</v>
+        <v>57.28733825683594</v>
       </c>
       <c r="H12" t="n">
-        <v>-24.89444541931152</v>
+        <v>-23.50034523010254</v>
       </c>
       <c r="I12" t="n">
-        <v>72.16281127929688</v>
+        <v>76.12246704101562</v>
       </c>
     </row>
     <row r="13">
@@ -804,28 +804,28 @@
         <v>53.63333333333333</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.06666666666666</v>
+        <v>46.36666666666667</v>
       </c>
       <c r="F13" t="n">
-        <v>103.4622802734375</v>
+        <v>101.5673522949219</v>
       </c>
       <c r="G13" t="n">
-        <v>59.63199615478516</v>
+        <v>57.50295639038086</v>
       </c>
       <c r="H13" t="n">
-        <v>-15.6211519241333</v>
+        <v>-17.17549896240234</v>
       </c>
       <c r="I13" t="n">
-        <v>71.23931121826172</v>
+        <v>70.69972229003906</v>
       </c>
     </row>
     <row r="14">
@@ -833,28 +833,28 @@
         <v>56.06666666666666</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>43.63333333333333</v>
+        <v>43.93333333333334</v>
       </c>
       <c r="F14" t="n">
-        <v>101.3784255981445</v>
+        <v>102.1274795532227</v>
       </c>
       <c r="G14" t="n">
-        <v>59.20838928222656</v>
+        <v>58.41184616088867</v>
       </c>
       <c r="H14" t="n">
-        <v>-4.550352096557617</v>
+        <v>-14.80099582672119</v>
       </c>
       <c r="I14" t="n">
-        <v>69.04956817626953</v>
+        <v>70.23970031738281</v>
       </c>
     </row>
     <row r="15">
@@ -862,28 +862,28 @@
         <v>58.5</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>41.2</v>
+        <v>41.5</v>
       </c>
       <c r="F15" t="n">
-        <v>100.8607177734375</v>
+        <v>99.9697265625</v>
       </c>
       <c r="G15" t="n">
-        <v>59.83206939697266</v>
+        <v>60.83635330200195</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.947271347045898</v>
+        <v>-6.062110900878906</v>
       </c>
       <c r="I15" t="n">
-        <v>67.28093719482422</v>
+        <v>67.11145782470703</v>
       </c>
     </row>
     <row r="16">
@@ -891,28 +891,28 @@
         <v>60.93333333333333</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>38.76666666666667</v>
+        <v>39.06666666666667</v>
       </c>
       <c r="F16" t="n">
-        <v>100.1585922241211</v>
+        <v>101.2065734863281</v>
       </c>
       <c r="G16" t="n">
-        <v>59.9317512512207</v>
+        <v>60.88741683959961</v>
       </c>
       <c r="H16" t="n">
-        <v>4.079646587371826</v>
+        <v>2.248995542526245</v>
       </c>
       <c r="I16" t="n">
-        <v>66.80725860595703</v>
+        <v>64.24375152587891</v>
       </c>
     </row>
     <row r="17">
@@ -920,28 +920,28 @@
         <v>63.36666666666666</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>36.33333333333334</v>
+        <v>36.63333333333334</v>
       </c>
       <c r="F17" t="n">
-        <v>100.6714248657227</v>
+        <v>97.82064819335938</v>
       </c>
       <c r="G17" t="n">
-        <v>61.14525604248047</v>
+        <v>58.78512573242188</v>
       </c>
       <c r="H17" t="n">
-        <v>4.008793830871582</v>
+        <v>4.219480037689209</v>
       </c>
       <c r="I17" t="n">
-        <v>67.29676055908203</v>
+        <v>65.04909515380859</v>
       </c>
     </row>
     <row r="18">
@@ -949,28 +949,28 @@
         <v>65.8</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>33.90000000000002</v>
+        <v>34.2</v>
       </c>
       <c r="F18" t="n">
-        <v>102.7855758666992</v>
+        <v>99.98064422607422</v>
       </c>
       <c r="G18" t="n">
-        <v>60.14163970947266</v>
+        <v>61.19818115234375</v>
       </c>
       <c r="H18" t="n">
-        <v>11.52236366271973</v>
+        <v>5.718808650970459</v>
       </c>
       <c r="I18" t="n">
-        <v>60.31646728515625</v>
+        <v>63.94513320922852</v>
       </c>
     </row>
     <row r="19">
@@ -978,28 +978,28 @@
         <v>68.23333333333333</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>31.46666666666668</v>
+        <v>31.76666666666667</v>
       </c>
       <c r="F19" t="n">
-        <v>100.3454513549805</v>
+        <v>100.4201202392578</v>
       </c>
       <c r="G19" t="n">
-        <v>64.25806427001953</v>
+        <v>64.29032897949219</v>
       </c>
       <c r="H19" t="n">
-        <v>6.849208354949951</v>
+        <v>8.439477920532227</v>
       </c>
       <c r="I19" t="n">
-        <v>60.81848907470703</v>
+        <v>63.25247192382812</v>
       </c>
     </row>
     <row r="20">
@@ -1007,28 +1007,28 @@
         <v>70.66666666666667</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>29.03333333333335</v>
+        <v>29.33333333333333</v>
       </c>
       <c r="F20" t="n">
-        <v>98.34510040283203</v>
+        <v>99.72534942626953</v>
       </c>
       <c r="G20" t="n">
-        <v>63.65502166748047</v>
+        <v>60.74686050415039</v>
       </c>
       <c r="H20" t="n">
-        <v>6.458967208862305</v>
+        <v>4.321362495422363</v>
       </c>
       <c r="I20" t="n">
-        <v>63.65157699584961</v>
+        <v>65.81588745117188</v>
       </c>
     </row>
     <row r="21">
@@ -1036,28 +1036,28 @@
         <v>73.09999999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>26.60000000000002</v>
+        <v>26.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>99.01124572753906</v>
+        <v>100.3740921020508</v>
       </c>
       <c r="G21" t="n">
-        <v>66.25257873535156</v>
+        <v>64.08135986328125</v>
       </c>
       <c r="H21" t="n">
-        <v>3.306976795196533</v>
+        <v>2.493741512298584</v>
       </c>
       <c r="I21" t="n">
-        <v>63.48741912841797</v>
+        <v>62.2887077331543</v>
       </c>
     </row>
     <row r="22">
@@ -1065,28 +1065,28 @@
         <v>75.53333333333333</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>24.16666666666669</v>
+        <v>24.46666666666667</v>
       </c>
       <c r="F22" t="n">
-        <v>104.3823394775391</v>
+        <v>101.3975448608398</v>
       </c>
       <c r="G22" t="n">
-        <v>64.93971252441406</v>
+        <v>67.04497528076172</v>
       </c>
       <c r="H22" t="n">
-        <v>1.0069819688797</v>
+        <v>0.07621343433856964</v>
       </c>
       <c r="I22" t="n">
-        <v>64.42046356201172</v>
+        <v>63.69625091552734</v>
       </c>
     </row>
     <row r="23">
@@ -1094,28 +1094,28 @@
         <v>77.96666666666667</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>21.73333333333335</v>
+        <v>22.03333333333333</v>
       </c>
       <c r="F23" t="n">
-        <v>102.7956619262695</v>
+        <v>97.71250152587891</v>
       </c>
       <c r="G23" t="n">
-        <v>64.57447052001953</v>
+        <v>67.35543060302734</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.303067922592163</v>
+        <v>-2.289048671722412</v>
       </c>
       <c r="I23" t="n">
-        <v>65.14575958251953</v>
+        <v>61.27662658691406</v>
       </c>
     </row>
     <row r="24">
@@ -1123,28 +1123,28 @@
         <v>80.39999999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>19.30000000000003</v>
+        <v>19.60000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>106.6303100585938</v>
+        <v>99.91529846191406</v>
       </c>
       <c r="G24" t="n">
-        <v>68.29769897460938</v>
+        <v>67.46678924560547</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.242491960525513</v>
+        <v>-3.567366123199463</v>
       </c>
       <c r="I24" t="n">
-        <v>65.28302001953125</v>
+        <v>64.69876861572266</v>
       </c>
     </row>
     <row r="25">
@@ -1152,28 +1152,28 @@
         <v>82.83333333333333</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>16.86666666666669</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="F25" t="n">
-        <v>100.8983688354492</v>
+        <v>100.7587203979492</v>
       </c>
       <c r="G25" t="n">
-        <v>68.14817810058594</v>
+        <v>71.54050445556641</v>
       </c>
       <c r="H25" t="n">
-        <v>-6.213114738464355</v>
+        <v>-10.63888454437256</v>
       </c>
       <c r="I25" t="n">
-        <v>65.81022644042969</v>
+        <v>65.94589233398438</v>
       </c>
     </row>
     <row r="26">
@@ -1181,28 +1181,28 @@
         <v>85.26666666666665</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>14.43333333333337</v>
+        <v>14.73333333333335</v>
       </c>
       <c r="F26" t="n">
-        <v>99.97557830810547</v>
+        <v>102.0854263305664</v>
       </c>
       <c r="G26" t="n">
-        <v>70.9031982421875</v>
+        <v>76.17172241210938</v>
       </c>
       <c r="H26" t="n">
-        <v>-16.3371696472168</v>
+        <v>-16.61555099487305</v>
       </c>
       <c r="I26" t="n">
-        <v>68.91384124755859</v>
+        <v>67.65723419189453</v>
       </c>
     </row>
     <row r="27">
@@ -1210,28 +1210,28 @@
         <v>87.69999999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>12.00000000000003</v>
+        <v>12.30000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>103.0988159179688</v>
+        <v>100.8848190307617</v>
       </c>
       <c r="G27" t="n">
-        <v>73.36814117431641</v>
+        <v>73.22433471679688</v>
       </c>
       <c r="H27" t="n">
-        <v>-20.83257865905762</v>
+        <v>-22.32213020324707</v>
       </c>
       <c r="I27" t="n">
-        <v>68.15582275390625</v>
+        <v>70.25867462158203</v>
       </c>
     </row>
     <row r="28">
@@ -1239,28 +1239,28 @@
         <v>90.13333333333333</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>9.566666666666691</v>
+        <v>9.866666666666674</v>
       </c>
       <c r="F28" t="n">
-        <v>105.5057907104492</v>
+        <v>105.6387100219727</v>
       </c>
       <c r="G28" t="n">
-        <v>75.43522644042969</v>
+        <v>74.81365966796875</v>
       </c>
       <c r="H28" t="n">
-        <v>-26.53503036499023</v>
+        <v>-23.20155334472656</v>
       </c>
       <c r="I28" t="n">
-        <v>69.36371612548828</v>
+        <v>71.72587585449219</v>
       </c>
     </row>
     <row r="29">
@@ -1268,28 +1268,28 @@
         <v>92.56666666666666</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>7.133333333333354</v>
+        <v>7.433333333333337</v>
       </c>
       <c r="F29" t="n">
-        <v>102.3765335083008</v>
+        <v>103.2712173461914</v>
       </c>
       <c r="G29" t="n">
-        <v>76.46566009521484</v>
+        <v>78.21144104003906</v>
       </c>
       <c r="H29" t="n">
-        <v>-29.2905330657959</v>
+        <v>-30.82230758666992</v>
       </c>
       <c r="I29" t="n">
-        <v>70.0130615234375</v>
+        <v>68.989501953125</v>
       </c>
     </row>
     <row r="30">
@@ -1297,28 +1297,28 @@
         <v>95</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>4.700000000000017</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>104.4358062744141</v>
+        <v>101.9792556762695</v>
       </c>
       <c r="G30" t="n">
-        <v>80.71335601806641</v>
+        <v>81.94498443603516</v>
       </c>
       <c r="H30" t="n">
-        <v>-35.30354690551758</v>
+        <v>-33.94854354858398</v>
       </c>
       <c r="I30" t="n">
-        <v>71.22997283935547</v>
+        <v>68.59889221191406</v>
       </c>
     </row>
   </sheetData>
